--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Col1a1-Ddr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Col1a1-Ddr1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.36533633333333</v>
+        <v>13.131583</v>
       </c>
       <c r="H2">
-        <v>46.096009</v>
+        <v>39.394749</v>
       </c>
       <c r="I2">
-        <v>0.005906911296689244</v>
+        <v>0.005137566080660421</v>
       </c>
       <c r="J2">
-        <v>0.005956412980416435</v>
+        <v>0.005152598994293116</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.357733</v>
+        <v>0.474632</v>
       </c>
       <c r="N2">
-        <v>1.073199</v>
+        <v>1.423896</v>
       </c>
       <c r="O2">
-        <v>0.03603418328298074</v>
+        <v>0.02818687333878431</v>
       </c>
       <c r="P2">
-        <v>0.04555337018213343</v>
+        <v>0.03795620749274008</v>
       </c>
       <c r="Q2">
-        <v>5.496687862532334</v>
+        <v>6.232669502456001</v>
       </c>
       <c r="R2">
-        <v>49.47019076279101</v>
+        <v>56.09402552210401</v>
       </c>
       <c r="S2">
-        <v>0.0002128507243012097</v>
+        <v>0.0001448119243852098</v>
       </c>
       <c r="T2">
-        <v>0.0002713346854545745</v>
+        <v>0.0001955731165542734</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.36533633333333</v>
+        <v>13.131583</v>
       </c>
       <c r="H3">
-        <v>46.096009</v>
+        <v>39.394749</v>
       </c>
       <c r="I3">
-        <v>0.005906911296689244</v>
+        <v>0.005137566080660421</v>
       </c>
       <c r="J3">
-        <v>0.005956412980416435</v>
+        <v>0.005152598994293116</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>7.707663999999999</v>
       </c>
       <c r="O3">
-        <v>0.2587957846211489</v>
+        <v>0.1525778209264635</v>
       </c>
       <c r="P3">
-        <v>0.3271621306314144</v>
+        <v>0.2054600153861819</v>
       </c>
       <c r="Q3">
-        <v>39.47694990144178</v>
+        <v>33.73794318403733</v>
       </c>
       <c r="R3">
-        <v>355.292549112976</v>
+        <v>303.641488656336</v>
       </c>
       <c r="S3">
-        <v>0.001528683743714221</v>
+        <v>0.0007838786374528785</v>
       </c>
       <c r="T3">
-        <v>0.001948712761593654</v>
+        <v>0.001058653068646289</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.36533633333333</v>
+        <v>13.131583</v>
       </c>
       <c r="H4">
-        <v>46.096009</v>
+        <v>39.394749</v>
       </c>
       <c r="I4">
-        <v>0.005906911296689244</v>
+        <v>0.005137566080660421</v>
       </c>
       <c r="J4">
-        <v>0.005956412980416435</v>
+        <v>0.005152598994293116</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5272676666666667</v>
+        <v>0.6015526666666667</v>
       </c>
       <c r="N4">
-        <v>1.581803</v>
+        <v>1.804658</v>
       </c>
       <c r="O4">
-        <v>0.05311128618230988</v>
+        <v>0.03572428496591312</v>
       </c>
       <c r="P4">
-        <v>0.06714174874763135</v>
+        <v>0.04810602284256246</v>
       </c>
       <c r="Q4">
-        <v>8.101645036025223</v>
+        <v>7.899338771204668</v>
       </c>
       <c r="R4">
-        <v>72.914805324227</v>
+        <v>71.09404894084201</v>
       </c>
       <c r="S4">
-        <v>0.0003137236563319816</v>
+        <v>0.0001835358746967222</v>
       </c>
       <c r="T4">
-        <v>0.0003999239837682503</v>
+        <v>0.000247871044918029</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.36533633333333</v>
+        <v>13.131583</v>
       </c>
       <c r="H5">
-        <v>46.096009</v>
+        <v>39.394749</v>
       </c>
       <c r="I5">
-        <v>0.005906911296689244</v>
+        <v>0.005137566080660421</v>
       </c>
       <c r="J5">
-        <v>0.005956412980416435</v>
+        <v>0.005152598994293116</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.223646499999999</v>
+        <v>13.0021005</v>
       </c>
       <c r="N5">
-        <v>12.447293</v>
+        <v>26.004201</v>
       </c>
       <c r="O5">
-        <v>0.6269033571671653</v>
+        <v>0.7721530784516092</v>
       </c>
       <c r="P5">
-        <v>0.5283420370261974</v>
+        <v>0.6931832443092185</v>
       </c>
       <c r="Q5">
-        <v>95.62842169227282</v>
+        <v>170.7381618900915</v>
       </c>
       <c r="R5">
-        <v>573.770530153637</v>
+        <v>1024.428971340549</v>
       </c>
       <c r="S5">
-        <v>0.003703062522383141</v>
+        <v>0.003966987464930512</v>
       </c>
       <c r="T5">
-        <v>0.003147023367442503</v>
+        <v>0.003571695287488519</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.36533633333333</v>
+        <v>13.131583</v>
       </c>
       <c r="H6">
-        <v>46.096009</v>
+        <v>39.394749</v>
       </c>
       <c r="I6">
-        <v>0.005906911296689244</v>
+        <v>0.005137566080660421</v>
       </c>
       <c r="J6">
-        <v>0.005956412980416435</v>
+        <v>0.005152598994293116</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.2497326666666667</v>
+        <v>0.1912536666666667</v>
       </c>
       <c r="N6">
-        <v>0.749198</v>
+        <v>0.573761</v>
       </c>
       <c r="O6">
-        <v>0.02515538874639522</v>
+        <v>0.01135794231722979</v>
       </c>
       <c r="P6">
-        <v>0.03180071341262338</v>
+        <v>0.01529450996929694</v>
       </c>
       <c r="Q6">
-        <v>3.837226416753556</v>
+        <v>2.511463397887667</v>
       </c>
       <c r="R6">
-        <v>34.535037750782</v>
+        <v>22.603170580989</v>
       </c>
       <c r="S6">
-        <v>0.0001485906499586914</v>
+        <v>5.835217919509737E-05</v>
       </c>
       <c r="T6">
-        <v>0.0001894181821574529</v>
+        <v>7.880647668600545E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>7554.170166</v>
       </c>
       <c r="I7">
-        <v>0.9680190120289646</v>
+        <v>0.9851579054959454</v>
       </c>
       <c r="J7">
-        <v>0.9761313009340347</v>
+        <v>0.9880405533247757</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.357733</v>
+        <v>0.474632</v>
       </c>
       <c r="N7">
-        <v>1.073199</v>
+        <v>1.423896</v>
       </c>
       <c r="O7">
-        <v>0.03603418328298074</v>
+        <v>0.02818687333878431</v>
       </c>
       <c r="P7">
-        <v>0.04555337018213343</v>
+        <v>0.03795620749274008</v>
       </c>
       <c r="Q7">
-        <v>900.791985331226</v>
+        <v>1195.150298076304</v>
       </c>
       <c r="R7">
-        <v>8107.127867981034</v>
+        <v>10756.35268268674</v>
       </c>
       <c r="S7">
-        <v>0.03488177450086165</v>
+        <v>0.02776852110091625</v>
       </c>
       <c r="T7">
-        <v>0.04446607049781557</v>
+        <v>0.0375022722532369</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>7554.170166</v>
       </c>
       <c r="I8">
-        <v>0.9680190120289646</v>
+        <v>0.9851579054959454</v>
       </c>
       <c r="J8">
-        <v>0.9761313009340347</v>
+        <v>0.9880405533247757</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>7.707663999999999</v>
       </c>
       <c r="O8">
-        <v>0.2587957846211489</v>
+        <v>0.1525778209264635</v>
       </c>
       <c r="P8">
-        <v>0.3271621306314144</v>
+        <v>0.2054600153861819</v>
       </c>
       <c r="Q8">
         <v>6469.445048705802</v>
@@ -948,10 +948,10 @@
         <v>58225.00543835222</v>
       </c>
       <c r="S8">
-        <v>0.2505192397462253</v>
+        <v>0.1503132464890502</v>
       </c>
       <c r="T8">
-        <v>0.3193531961895931</v>
+        <v>0.2030028272882801</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>7554.170166</v>
       </c>
       <c r="I9">
-        <v>0.9680190120289646</v>
+        <v>0.9851579054959454</v>
       </c>
       <c r="J9">
-        <v>0.9761313009340347</v>
+        <v>0.9880405533247757</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.5272676666666667</v>
+        <v>0.6015526666666667</v>
       </c>
       <c r="N9">
-        <v>1.581803</v>
+        <v>1.804658</v>
       </c>
       <c r="O9">
-        <v>0.05311128618230988</v>
+        <v>0.03572428496591312</v>
       </c>
       <c r="P9">
-        <v>0.06714174874763135</v>
+        <v>0.04810602284256246</v>
       </c>
       <c r="Q9">
-        <v>1327.689892343255</v>
+        <v>1514.743735937025</v>
       </c>
       <c r="R9">
-        <v>11949.2090310893</v>
+        <v>13632.69362343323</v>
       </c>
       <c r="S9">
-        <v>0.0514127347777872</v>
+        <v>0.03519406175235926</v>
       </c>
       <c r="T9">
-        <v>0.06553916255201148</v>
+        <v>0.04753070142761971</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>7554.170166</v>
       </c>
       <c r="I10">
-        <v>0.9680190120289646</v>
+        <v>0.9851579054959454</v>
       </c>
       <c r="J10">
-        <v>0.9761313009340347</v>
+        <v>0.9880405533247757</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.223646499999999</v>
+        <v>13.0021005</v>
       </c>
       <c r="N10">
-        <v>12.447293</v>
+        <v>26.004201</v>
       </c>
       <c r="O10">
-        <v>0.6269033571671653</v>
+        <v>0.7721530784516092</v>
       </c>
       <c r="P10">
-        <v>0.5283420370261974</v>
+        <v>0.6931832443092185</v>
       </c>
       <c r="Q10">
-        <v>15671.49490467677</v>
+        <v>32740.02656414456</v>
       </c>
       <c r="R10">
-        <v>94028.96942806062</v>
+        <v>196440.1593848674</v>
       </c>
       <c r="S10">
-        <v>0.6068543684426004</v>
+        <v>0.7606927094896337</v>
       </c>
       <c r="T10">
-        <v>0.51573119994052</v>
+        <v>0.6848931562627434</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>7554.170166</v>
       </c>
       <c r="I11">
-        <v>0.9680190120289646</v>
+        <v>0.9851579054959454</v>
       </c>
       <c r="J11">
-        <v>0.9761313009340347</v>
+        <v>0.9880405533247757</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.2497326666666667</v>
+        <v>0.1912536666666667</v>
       </c>
       <c r="N11">
-        <v>0.749198</v>
+        <v>0.573761</v>
       </c>
       <c r="O11">
-        <v>0.02515538874639522</v>
+        <v>0.01135794231722979</v>
       </c>
       <c r="P11">
-        <v>0.03180071341262338</v>
+        <v>0.01529450996929694</v>
       </c>
       <c r="Q11">
-        <v>628.8410200029854</v>
+        <v>481.5875809571473</v>
       </c>
       <c r="R11">
-        <v>5659.569180026868</v>
+        <v>4334.288228614326</v>
       </c>
       <c r="S11">
-        <v>0.02435089456149004</v>
+        <v>0.01118936666398586</v>
       </c>
       <c r="T11">
-        <v>0.03104167175409447</v>
+        <v>0.01511159609289545</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>1.521120333333333</v>
+        <v>1.21459</v>
       </c>
       <c r="H12">
-        <v>4.563361</v>
+        <v>3.64377</v>
       </c>
       <c r="I12">
-        <v>0.000584765779652879</v>
+        <v>0.0004751930049796235</v>
       </c>
       <c r="J12">
-        <v>0.0005896662918198867</v>
+        <v>0.0004765834562732061</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.357733</v>
+        <v>0.474632</v>
       </c>
       <c r="N12">
-        <v>1.073199</v>
+        <v>1.423896</v>
       </c>
       <c r="O12">
-        <v>0.03603418328298074</v>
+        <v>0.02818687333878431</v>
       </c>
       <c r="P12">
-        <v>0.04555337018213343</v>
+        <v>0.03795620749274008</v>
       </c>
       <c r="Q12">
-        <v>0.5441549402043334</v>
+        <v>0.57648328088</v>
       </c>
       <c r="R12">
-        <v>4.897394461839</v>
+        <v>5.188349527920001</v>
       </c>
       <c r="S12">
-        <v>2.107155728162697E-05</v>
+        <v>1.339420504283695E-05</v>
       </c>
       <c r="T12">
-        <v>2.686128687519721E-05</v>
+        <v>1.808930055391302E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>1.521120333333333</v>
+        <v>1.21459</v>
       </c>
       <c r="H13">
-        <v>4.563361</v>
+        <v>3.64377</v>
       </c>
       <c r="I13">
-        <v>0.000584765779652879</v>
+        <v>0.0004751930049796235</v>
       </c>
       <c r="J13">
-        <v>0.0005896662918198867</v>
+        <v>0.0004765834562732061</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>7.707663999999999</v>
       </c>
       <c r="O13">
-        <v>0.2587957846211489</v>
+        <v>0.1525778209264635</v>
       </c>
       <c r="P13">
-        <v>0.3271621306314144</v>
+        <v>0.2054600153861819</v>
       </c>
       <c r="Q13">
-        <v>3.908094810967111</v>
+        <v>3.120550539253333</v>
       </c>
       <c r="R13">
-        <v>35.172853298704</v>
+        <v>28.08495485328</v>
       </c>
       <c r="S13">
-        <v>0.0001513349187648647</v>
+        <v>7.250391321928906E-05</v>
       </c>
       <c r="T13">
-        <v>0.0001929164803933195</v>
+        <v>9.791884425869268E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>1.521120333333333</v>
+        <v>1.21459</v>
       </c>
       <c r="H14">
-        <v>4.563361</v>
+        <v>3.64377</v>
       </c>
       <c r="I14">
-        <v>0.000584765779652879</v>
+        <v>0.0004751930049796235</v>
       </c>
       <c r="J14">
-        <v>0.0005896662918198867</v>
+        <v>0.0004765834562732061</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.5272676666666667</v>
+        <v>0.6015526666666667</v>
       </c>
       <c r="N14">
-        <v>1.581803</v>
+        <v>1.804658</v>
       </c>
       <c r="O14">
-        <v>0.05311128618230988</v>
+        <v>0.03572428496591312</v>
       </c>
       <c r="P14">
-        <v>0.06714174874763135</v>
+        <v>0.04810602284256246</v>
       </c>
       <c r="Q14">
-        <v>0.802037568875889</v>
+        <v>0.7306398534066668</v>
       </c>
       <c r="R14">
-        <v>7.218338119883001</v>
+        <v>6.575758680660001</v>
       </c>
       <c r="S14">
-        <v>3.105766267276562E-05</v>
+        <v>1.697593032370064E-05</v>
       </c>
       <c r="T14">
-        <v>3.95912260103183E-05</v>
+        <v>2.292653463386622E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>1.521120333333333</v>
+        <v>1.21459</v>
       </c>
       <c r="H15">
-        <v>4.563361</v>
+        <v>3.64377</v>
       </c>
       <c r="I15">
-        <v>0.000584765779652879</v>
+        <v>0.0004751930049796235</v>
       </c>
       <c r="J15">
-        <v>0.0005896662918198867</v>
+        <v>0.0004765834562732061</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.223646499999999</v>
+        <v>13.0021005</v>
       </c>
       <c r="N15">
-        <v>12.447293</v>
+        <v>26.004201</v>
       </c>
       <c r="O15">
-        <v>0.6269033571671653</v>
+        <v>0.7721530784516092</v>
       </c>
       <c r="P15">
-        <v>0.5283420370261974</v>
+        <v>0.6931832443092185</v>
       </c>
       <c r="Q15">
-        <v>9.466915238628832</v>
+        <v>15.792221246295</v>
       </c>
       <c r="R15">
-        <v>56.80149143177299</v>
+        <v>94.75332747777001</v>
       </c>
       <c r="S15">
-        <v>0.0003665916304208647</v>
+        <v>0.0003669217416536872</v>
       </c>
       <c r="T15">
-        <v>0.0003115454897858031</v>
+        <v>0.0003303596664035616</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.21459</v>
+      </c>
+      <c r="H16">
+        <v>3.64377</v>
+      </c>
+      <c r="I16">
+        <v>0.0004751930049796235</v>
+      </c>
+      <c r="J16">
+        <v>0.0004765834562732061</v>
+      </c>
+      <c r="K16">
         <v>2</v>
       </c>
-      <c r="F16">
+      <c r="L16">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G16">
-        <v>1.521120333333333</v>
-      </c>
-      <c r="H16">
-        <v>4.563361</v>
-      </c>
-      <c r="I16">
-        <v>0.000584765779652879</v>
-      </c>
-      <c r="J16">
-        <v>0.0005896662918198867</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
       <c r="M16">
-        <v>0.2497326666666667</v>
+        <v>0.1912536666666667</v>
       </c>
       <c r="N16">
-        <v>0.749198</v>
+        <v>0.573761</v>
       </c>
       <c r="O16">
-        <v>0.02515538874639522</v>
+        <v>0.01135794231722979</v>
       </c>
       <c r="P16">
-        <v>0.03180071341262338</v>
+        <v>0.01529450996929694</v>
       </c>
       <c r="Q16">
-        <v>0.3798734371642223</v>
+        <v>0.2322947909966667</v>
       </c>
       <c r="R16">
-        <v>3.418860934478</v>
+        <v>2.09065311897</v>
       </c>
       <c r="S16">
-        <v>1.471001051275706E-05</v>
+        <v>5.39721474010965E-06</v>
       </c>
       <c r="T16">
-        <v>1.875180875524856E-05</v>
+        <v>7.289110423172543E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>64.85419099999999</v>
+        <v>22.3716355</v>
       </c>
       <c r="H17">
-        <v>129.708382</v>
+        <v>44.743271</v>
       </c>
       <c r="I17">
-        <v>0.02493196016962392</v>
+        <v>0.008752619978390915</v>
       </c>
       <c r="J17">
-        <v>0.01676059830285119</v>
+        <v>0.005852153878578699</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.357733</v>
+        <v>0.474632</v>
       </c>
       <c r="N17">
-        <v>1.073199</v>
+        <v>1.423896</v>
       </c>
       <c r="O17">
-        <v>0.03603418328298074</v>
+        <v>0.02818687333878431</v>
       </c>
       <c r="P17">
-        <v>0.04555337018213343</v>
+        <v>0.03795620749274008</v>
       </c>
       <c r="Q17">
-        <v>23.200484309003</v>
+        <v>10.618294100636</v>
       </c>
       <c r="R17">
-        <v>139.202905854018</v>
+        <v>63.70976460381601</v>
       </c>
       <c r="S17">
-        <v>0.0008984028223562037</v>
+        <v>0.0002467089907134178</v>
       </c>
       <c r="T17">
-        <v>0.0007635017389638175</v>
+        <v>0.0002221255668947767</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>64.85419099999999</v>
+        <v>22.3716355</v>
       </c>
       <c r="H18">
-        <v>129.708382</v>
+        <v>44.743271</v>
       </c>
       <c r="I18">
-        <v>0.02493196016962392</v>
+        <v>0.008752619978390915</v>
       </c>
       <c r="J18">
-        <v>0.01676059830285119</v>
+        <v>0.005852153878578699</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>7.707663999999999</v>
       </c>
       <c r="O18">
-        <v>0.2587957846211489</v>
+        <v>0.1525778209264635</v>
       </c>
       <c r="P18">
-        <v>0.3271621306314144</v>
+        <v>0.2054600153861819</v>
       </c>
       <c r="Q18">
-        <v>166.6247710732746</v>
+        <v>57.47768318815733</v>
       </c>
       <c r="R18">
-        <v>999.7486264396478</v>
+        <v>344.866099128944</v>
       </c>
       <c r="S18">
-        <v>0.006452286194241054</v>
+        <v>0.001335455683700315</v>
       </c>
       <c r="T18">
-        <v>0.005483433051418063</v>
+        <v>0.001202383625935084</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>64.85419099999999</v>
+        <v>22.3716355</v>
       </c>
       <c r="H19">
-        <v>129.708382</v>
+        <v>44.743271</v>
       </c>
       <c r="I19">
-        <v>0.02493196016962392</v>
+        <v>0.008752619978390915</v>
       </c>
       <c r="J19">
-        <v>0.01676059830285119</v>
+        <v>0.005852153878578699</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.5272676666666667</v>
+        <v>0.6015526666666667</v>
       </c>
       <c r="N19">
-        <v>1.581803</v>
+        <v>1.804658</v>
       </c>
       <c r="O19">
-        <v>0.05311128618230988</v>
+        <v>0.03572428496591312</v>
       </c>
       <c r="P19">
-        <v>0.06714174874763135</v>
+        <v>0.04810602284256246</v>
       </c>
       <c r="Q19">
-        <v>34.19551796212433</v>
+        <v>13.45771699271967</v>
       </c>
       <c r="R19">
-        <v>205.173107772746</v>
+        <v>80.74630195631801</v>
       </c>
       <c r="S19">
-        <v>0.001324168471654847</v>
+        <v>0.0003126810903063813</v>
       </c>
       <c r="T19">
-        <v>0.001125335880110011</v>
+        <v>0.0002815238481610974</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>64.85419099999999</v>
+        <v>22.3716355</v>
       </c>
       <c r="H20">
-        <v>129.708382</v>
+        <v>44.743271</v>
       </c>
       <c r="I20">
-        <v>0.02493196016962392</v>
+        <v>0.008752619978390915</v>
       </c>
       <c r="J20">
-        <v>0.01676059830285119</v>
+        <v>0.005852153878578699</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.223646499999999</v>
+        <v>13.0021005</v>
       </c>
       <c r="N20">
-        <v>12.447293</v>
+        <v>26.004201</v>
       </c>
       <c r="O20">
-        <v>0.6269033571671653</v>
+        <v>0.7721530784516092</v>
       </c>
       <c r="P20">
-        <v>0.5283420370261974</v>
+        <v>0.6931832443092185</v>
       </c>
       <c r="Q20">
-        <v>403.6295588274813</v>
+        <v>290.8782531203678</v>
       </c>
       <c r="R20">
-        <v>1614.518235309925</v>
+        <v>1163.513012481471</v>
       </c>
       <c r="S20">
-        <v>0.01562992953109528</v>
+        <v>0.006758362460831602</v>
       </c>
       <c r="T20">
-        <v>0.008855328649106224</v>
+        <v>0.004056615011749959</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>64.85419099999999</v>
+        <v>22.3716355</v>
       </c>
       <c r="H21">
-        <v>129.708382</v>
+        <v>44.743271</v>
       </c>
       <c r="I21">
-        <v>0.02493196016962392</v>
+        <v>0.008752619978390915</v>
       </c>
       <c r="J21">
-        <v>0.01676059830285119</v>
+        <v>0.005852153878578699</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.2497326666666667</v>
+        <v>0.1912536666666667</v>
       </c>
       <c r="N21">
-        <v>0.749198</v>
+        <v>0.573761</v>
       </c>
       <c r="O21">
-        <v>0.02515538874639522</v>
+        <v>0.01135794231722979</v>
       </c>
       <c r="P21">
-        <v>0.03180071341262338</v>
+        <v>0.01529450996929694</v>
       </c>
       <c r="Q21">
-        <v>16.19621006293933</v>
+        <v>4.278657318705166</v>
       </c>
       <c r="R21">
-        <v>97.17726037763599</v>
+        <v>25.671943912231</v>
       </c>
       <c r="S21">
-        <v>0.0006271731502765313</v>
+        <v>9.941175283919702E-05</v>
       </c>
       <c r="T21">
-        <v>0.0005329989832530725</v>
+        <v>8.950582583778167E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>1.449807</v>
+        <v>1.218481333333333</v>
       </c>
       <c r="H22">
-        <v>4.349421</v>
+        <v>3.655444</v>
       </c>
       <c r="I22">
-        <v>0.00055735072506944</v>
+        <v>0.000476715440023584</v>
       </c>
       <c r="J22">
-        <v>0.0005620214908777858</v>
+        <v>0.0004781103460792403</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.357733</v>
+        <v>0.474632</v>
       </c>
       <c r="N22">
-        <v>1.073199</v>
+        <v>1.423896</v>
       </c>
       <c r="O22">
-        <v>0.03603418328298074</v>
+        <v>0.02818687333878431</v>
       </c>
       <c r="P22">
-        <v>0.04555337018213343</v>
+        <v>0.03795620749274008</v>
       </c>
       <c r="Q22">
-        <v>0.518643807531</v>
+        <v>0.5783302322026667</v>
       </c>
       <c r="R22">
-        <v>4.667794267779001</v>
+        <v>5.204972089824</v>
       </c>
       <c r="S22">
-        <v>2.008367818005441E-05</v>
+        <v>1.343711772658759E-05</v>
       </c>
       <c r="T22">
-        <v>2.56019730242703E-05</v>
+        <v>1.814725550020941E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>1.449807</v>
+        <v>1.218481333333333</v>
       </c>
       <c r="H23">
-        <v>4.349421</v>
+        <v>3.655444</v>
       </c>
       <c r="I23">
-        <v>0.00055735072506944</v>
+        <v>0.000476715440023584</v>
       </c>
       <c r="J23">
-        <v>0.0005620214908777858</v>
+        <v>0.0004781103460792403</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>7.707663999999999</v>
       </c>
       <c r="O23">
-        <v>0.2587957846211489</v>
+        <v>0.1525778209264635</v>
       </c>
       <c r="P23">
-        <v>0.3271621306314144</v>
+        <v>0.2054600153861819</v>
       </c>
       <c r="Q23">
-        <v>3.724875073616</v>
+        <v>3.130548235868444</v>
       </c>
       <c r="R23">
-        <v>33.523875662544</v>
+        <v>28.174934122816</v>
       </c>
       <c r="S23">
-        <v>0.000144240018203512</v>
+        <v>7.273620304079864E-05</v>
       </c>
       <c r="T23">
-        <v>0.0001838721484162204</v>
+        <v>9.823255906173348E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>1.449807</v>
+        <v>1.218481333333333</v>
       </c>
       <c r="H24">
-        <v>4.349421</v>
+        <v>3.655444</v>
       </c>
       <c r="I24">
-        <v>0.00055735072506944</v>
+        <v>0.000476715440023584</v>
       </c>
       <c r="J24">
-        <v>0.0005620214908777858</v>
+        <v>0.0004781103460792403</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.5272676666666667</v>
+        <v>0.6015526666666667</v>
       </c>
       <c r="N24">
-        <v>1.581803</v>
+        <v>1.804658</v>
       </c>
       <c r="O24">
-        <v>0.05311128618230988</v>
+        <v>0.03572428496591312</v>
       </c>
       <c r="P24">
-        <v>0.06714174874763135</v>
+        <v>0.04810602284256246</v>
       </c>
       <c r="Q24">
-        <v>0.7644363540070001</v>
+        <v>0.7329806953502223</v>
       </c>
       <c r="R24">
-        <v>6.879927186063001</v>
+        <v>6.596826258152</v>
       </c>
       <c r="S24">
-        <v>2.960161386308094E-05</v>
+        <v>1.703031822705318E-05</v>
       </c>
       <c r="T24">
-        <v>3.773510573128548E-05</v>
+        <v>2.299998722975337E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>1.449807</v>
+        <v>1.218481333333333</v>
       </c>
       <c r="H25">
-        <v>4.349421</v>
+        <v>3.655444</v>
       </c>
       <c r="I25">
-        <v>0.00055735072506944</v>
+        <v>0.000476715440023584</v>
       </c>
       <c r="J25">
-        <v>0.0005620214908777858</v>
+        <v>0.0004781103460792403</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>6.223646499999999</v>
+        <v>13.0021005</v>
       </c>
       <c r="N25">
-        <v>12.447293</v>
+        <v>26.004201</v>
       </c>
       <c r="O25">
-        <v>0.6269033571671653</v>
+        <v>0.7721530784516092</v>
       </c>
       <c r="P25">
-        <v>0.5283420370261974</v>
+        <v>0.6931832443092185</v>
       </c>
       <c r="Q25">
-        <v>9.023086261225499</v>
+        <v>15.842816753374</v>
       </c>
       <c r="R25">
-        <v>54.138517567353</v>
+        <v>95.05690052024401</v>
       </c>
       <c r="S25">
-        <v>0.0003494050406655857</v>
+        <v>0.0003680972945596239</v>
       </c>
       <c r="T25">
-        <v>0.0002969395793428698</v>
+        <v>0.000331418080833011</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.218481333333333</v>
+      </c>
+      <c r="H26">
+        <v>3.655444</v>
+      </c>
+      <c r="I26">
+        <v>0.000476715440023584</v>
+      </c>
+      <c r="J26">
+        <v>0.0004781103460792403</v>
+      </c>
+      <c r="K26">
         <v>2</v>
       </c>
-      <c r="F26">
+      <c r="L26">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G26">
-        <v>1.449807</v>
-      </c>
-      <c r="H26">
-        <v>4.349421</v>
-      </c>
-      <c r="I26">
-        <v>0.00055735072506944</v>
-      </c>
-      <c r="J26">
-        <v>0.0005620214908777858</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
       <c r="M26">
-        <v>0.2497326666666667</v>
+        <v>0.1912536666666667</v>
       </c>
       <c r="N26">
-        <v>0.749198</v>
+        <v>0.573761</v>
       </c>
       <c r="O26">
-        <v>0.02515538874639522</v>
+        <v>0.01135794231722979</v>
       </c>
       <c r="P26">
-        <v>0.03180071341262338</v>
+        <v>0.01529450996929694</v>
       </c>
       <c r="Q26">
-        <v>0.3620641682620001</v>
+        <v>0.2330390227648889</v>
       </c>
       <c r="R26">
-        <v>3.258577514358</v>
+        <v>2.097351204884</v>
       </c>
       <c r="S26">
-        <v>1.402037415720701E-05</v>
+        <v>5.414506469520683E-06</v>
       </c>
       <c r="T26">
-        <v>1.787268436313979E-05</v>
+        <v>7.312463454532951E-06</v>
       </c>
     </row>
   </sheetData>
